--- a/global/AttRatio.xlsx
+++ b/global/AttRatio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="AttRatio" sheetId="1" r:id="rId1"/>
@@ -13,46 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-取卡牌升级50级数值</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>行列头两行不会被读取</t>
-  </si>
-  <si>
-    <t>0: 装备升级属性成长率
-1: 装备突破属性成长率</t>
   </si>
   <si>
     <t>成长率属性描述</t>
@@ -312,6 +276,9 @@
   </si>
   <si>
     <t>装备升级属性成长率</t>
+  </si>
+  <si>
+    <t>装备突破属性成长率</t>
   </si>
 </sst>
 </file>
@@ -319,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -346,8 +313,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +336,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -369,22 +344,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +359,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +388,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -414,10 +396,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,10 +418,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,49 +451,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -517,187 +484,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,17 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,41 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,155 +746,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -984,13 +951,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,54 +960,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2194,42 +2155,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5096153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1923076923077" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5384615384615" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5384615384615" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5416666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5384615384615" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="14" max="15" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="16" max="18" width="14.5384615384615" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5384615384615" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5384615384615" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5384615384615" style="1" customWidth="1"/>
-    <col min="22" max="27" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5384615384615" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5384615384615" style="1" customWidth="1"/>
-    <col min="31" max="34" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="35" max="35" width="24.5384615384615" style="1" customWidth="1"/>
-    <col min="36" max="39" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="40" max="41" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5416666666667" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="16" max="18" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5416666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5416666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5416666666667" style="1" customWidth="1"/>
+    <col min="22" max="27" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5416666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5416666666667" style="1" customWidth="1"/>
+    <col min="31" max="34" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5416666666667" style="1" customWidth="1"/>
+    <col min="36" max="39" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="40" max="41" width="17.35" style="1" customWidth="1"/>
     <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2281,11 +2242,9 @@
     <row r="2" ht="113" customHeight="1" spans="1:41">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -2322,263 +2281,263 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>3</v>
+      <c r="AN2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:41">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:41">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AO4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:41">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2623,56 +2582,56 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:41">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2695,10 +2654,10 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:41">
@@ -2708,111 +2667,111 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="8">
-        <v>440</v>
-      </c>
-      <c r="F7" s="9">
-        <v>636</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>500</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>150</v>
-      </c>
-      <c r="M7" s="9">
-        <v>150</v>
-      </c>
-      <c r="N7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="O7" s="9">
-        <v>3000</v>
-      </c>
-      <c r="P7" s="9">
-        <v>6600</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>2500</v>
-      </c>
-      <c r="R7" s="9">
-        <v>120</v>
-      </c>
-      <c r="S7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="8">
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="str">
@@ -2822,6 +2781,127 @@
       <c r="AO7" s="7" t="str">
         <f>AD1:AD7&amp;","&amp;AE1:AE7&amp;","&amp;AF1:AF7&amp;","&amp;AG1:AG7&amp;","&amp;AH1:AH7&amp;","&amp;AI1:AI7&amp;","&amp;AJ1:AJ7&amp;","&amp;AK1:AK7&amp;","&amp;AL1:AL7&amp;","&amp;AM1:AM7</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="3:41">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>25</v>
+      </c>
+      <c r="U8" s="1">
+        <v>25</v>
+      </c>
+      <c r="V8" s="1">
+        <v>25</v>
+      </c>
+      <c r="W8" s="1">
+        <v>25</v>
+      </c>
+      <c r="X8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN8" s="7" t="str">
+        <f>T2:T8&amp;","&amp;U2:U8&amp;","&amp;V2:V8&amp;","&amp;W2:W8&amp;","&amp;X2:X8&amp;","&amp;Y2:Y8&amp;","&amp;Z2:Z8&amp;","&amp;AA2:AA8&amp;","&amp;AB2:AB8&amp;","&amp;AC2:AC8</f>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="AO8" s="7" t="str">
+        <f>AD2:AD8&amp;","&amp;AE2:AE8&amp;","&amp;AF2:AF8&amp;","&amp;AG2:AG8&amp;","&amp;AH2:AH8&amp;","&amp;AI2:AI8&amp;","&amp;AJ2:AJ8&amp;","&amp;AK2:AK8&amp;","&amp;AL2:AL8&amp;","&amp;AM2:AM8</f>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
   </sheetData>
@@ -2830,6 +2910,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/AttRatio.xlsx
+++ b/global/AttRatio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="AttRatio" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -286,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -309,27 +309,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,22 +328,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,26 +381,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,16 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,17 +421,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,9 +435,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,67 +484,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,115 +640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,45 +689,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +726,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -779,162 +790,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,54 +960,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2155,42 +2155,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:T23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1916666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5416666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5096153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1923076923077" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5384615384615" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5384615384615" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5384615384615" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5416666666667" style="1" customWidth="1"/>
-    <col min="14" max="15" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="16" max="18" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5416666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5416666666667" style="1" customWidth="1"/>
-    <col min="22" max="27" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5416666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5416666666667" style="1" customWidth="1"/>
-    <col min="31" max="34" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="24.5416666666667" style="1" customWidth="1"/>
-    <col min="36" max="39" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="40" max="41" width="17.35" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5384615384615" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="16" max="18" width="14.5384615384615" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5384615384615" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5384615384615" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5384615384615" style="1" customWidth="1"/>
+    <col min="22" max="27" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5384615384615" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5384615384615" style="1" customWidth="1"/>
+    <col min="31" max="34" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5384615384615" style="1" customWidth="1"/>
+    <col min="36" max="39" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="40" max="41" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
